--- a/TransferLearning_Pytorch_Versionen.xlsx
+++ b/TransferLearning_Pytorch_Versionen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisawiddermann/Documents/Studium/THM/Neuronale Netze/Hausarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C90D2B-E967-A14B-8302-263B7428606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9FC78-8A67-5840-8712-D87DF9F661B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{1A3CB88E-A33D-FA45-9C70-20EC8B9E8A29}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>NUM_EPOCHS</t>
   </si>
@@ -143,6 +143,21 @@
   <si>
     <t>11</t>
   </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>PROBLEM</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
 </sst>
 </file>
 
@@ -150,8 +165,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -177,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +208,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,16 +242,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -238,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -250,7 +271,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,13 +283,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,7 +310,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2882,6 +2919,738 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2906718</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1964267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Grafik 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA373411-FFF1-3248-A301-6B96B0F9F6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16289867" y="22216533"/>
+          <a:ext cx="2906718" cy="1964267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2905785</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2032000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Grafik 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1EE834A-BEEB-9749-B530-C7BED0C5EA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13191067" y="22216533"/>
+          <a:ext cx="2905785" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2679700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1778000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Grafik 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65E80E5-46BA-2A41-9C33-6A88C9B5E4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19278600" y="22161500"/>
+          <a:ext cx="2679700" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2931775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Grafik 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E5A504-EF0E-B04F-B33D-1047DBDADEC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16289867" y="24468667"/>
+          <a:ext cx="2931775" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2909455</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2032000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Grafik 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8FB283D-E7B4-1F4C-92AC-7AF087DE689F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13191067" y="24468667"/>
+          <a:ext cx="2909455" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2679700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1778000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Grafik 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78452C22-8143-1B45-BE86-233F05125B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19278600" y="24409400"/>
+          <a:ext cx="2679700" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2862537</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1990299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Grafik 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81DC1A11-6D94-B742-8A1C-8AAC60762A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16263583" y="26518358"/>
+          <a:ext cx="2862536" cy="1990299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2874311</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2028209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Grafik 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE99DBCD-573A-B646-AF6C-D62B910BA688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13173882" y="26518358"/>
+          <a:ext cx="2874310" cy="2028209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2679700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1778000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Grafik 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2C0C58-F43B-864B-A00F-572DBD309787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19278600" y="26492200"/>
+          <a:ext cx="2679700" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2862239</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1990092</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Grafik 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABF52EF-8EF7-E846-BB81-F9F374E13890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16263582" y="28717164"/>
+          <a:ext cx="2862239" cy="1990092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2824329</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1996404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Grafik 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB425C98-0A8D-A34B-A08E-307A7CB2F28E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13173882" y="28717164"/>
+          <a:ext cx="2824328" cy="1996404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2679700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1778000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Grafik 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CFD16B6-38F8-4D4D-B899-1869F05DEBD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19278600" y="28689300"/>
+          <a:ext cx="2679700" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3184,10 +3953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9A4537-853B-2541-8739-3803FFEF92AD}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="67" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3394,47 +4163,47 @@
         <v>2.6041666666666665E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="19">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="19">
         <v>70</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="20">
         <v>25000</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="20">
         <v>20000</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="20">
         <v>5000</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="4">
         <v>0.94469999999999998</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="4">
         <v>0.98880000000000001</v>
       </c>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" s="11">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="5">
         <v>2.6620370370370374E-3</v>
       </c>
     </row>
@@ -3688,7 +4457,7 @@
       <c r="I11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="K11" s="10">
@@ -3706,7 +4475,7 @@
         <v>2.0254629629629629E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="161" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
@@ -3728,7 +4497,7 @@
       <c r="G12" s="9">
         <v>5000</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -3737,24 +4506,50 @@
       <c r="J12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="11"/>
+      <c r="K12" s="10">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="L12" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12" s="11">
+        <v>2.7777777777777779E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1E-4</v>
+      </c>
+      <c r="D13" s="17">
+        <v>70</v>
+      </c>
+      <c r="E13" s="9">
+        <v>25000</v>
+      </c>
+      <c r="F13" s="9">
+        <v>20000</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5000</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="8"/>
@@ -3762,45 +4557,141 @@
       <c r="O13"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="11"/>
+    <row r="14" spans="1:16" ht="164" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="19">
+        <v>5</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D14" s="22">
+        <v>70</v>
+      </c>
+      <c r="E14" s="20">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="20">
+        <v>20000</v>
+      </c>
+      <c r="G14" s="20">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.9415</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14" s="11">
+        <v>2.615740740740741E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="11"/>
+    <row r="15" spans="1:16" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="19">
+        <v>10</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="D15" s="22">
+        <v>70</v>
+      </c>
+      <c r="E15" s="20">
+        <v>25000</v>
+      </c>
+      <c r="F15" s="20">
+        <v>20000</v>
+      </c>
+      <c r="G15" s="20">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="L15" s="10">
+        <v>0.98960000000000004</v>
+      </c>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15" s="23">
+        <v>2.6620370370370374E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="164" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="19">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="D16" s="22">
+        <v>70</v>
+      </c>
+      <c r="E16" s="20">
+        <v>25000</v>
+      </c>
+      <c r="F16" s="20">
+        <v>20000</v>
+      </c>
+      <c r="G16" s="20">
+        <v>5000</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.95779999999999998</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16" s="24">
+        <v>2.7546296296296294E-3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3812,6 +4703,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L10 L12:L15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3823,7 +4750,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L10 L12:L15">
+  <conditionalFormatting sqref="L16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3835,7 +4762,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15">
+  <conditionalFormatting sqref="L16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/TransferLearning_Pytorch_Versionen.xlsx
+++ b/TransferLearning_Pytorch_Versionen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elisawiddermann/Documents/Studium/THM/Neuronale Netze/Hausarbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C9FC78-8A67-5840-8712-D87DF9F661B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DE5651-8133-E045-8777-3516AC2C2402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{1A3CB88E-A33D-FA45-9C70-20EC8B9E8A29}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>NUM_EPOCHS</t>
   </si>
@@ -147,9 +147,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>PROBLEM</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -157,6 +154,12 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,7 +328,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -329,12 +337,128 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3634,6 +3758,189 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="19278600" y="28689300"/>
+          <a:ext cx="2679700" cy="1778000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2870489</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1943100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Grafik 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED388FE-E734-254A-B07C-07D72C1876A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16256000" y="30772100"/>
+          <a:ext cx="2870489" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>55033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Grafik 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A4497B-44AA-9046-AD7B-DBF3CA704B9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13157200" y="30772100"/>
+          <a:ext cx="2933700" cy="2048933"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2679700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1778000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Grafik 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B192A39A-CC6C-BB45-9286-AB1CC8DEC295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19278600" y="30772100"/>
           <a:ext cx="2679700" cy="1778000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3953,10 +4260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9A4537-853B-2541-8739-3803FFEF92AD}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="67" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="61" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4163,47 +4470,47 @@
         <v>2.6041666666666665E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:16" s="31" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="25">
         <v>5</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="26">
         <v>1E-4</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="26">
         <v>70</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="27">
         <v>25000</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="27">
         <v>20000</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="27">
         <v>5000</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="28">
         <v>0.94469999999999998</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="28">
         <v>0.98880000000000001</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="5">
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="30">
         <v>2.6620370370370374E-3</v>
       </c>
     </row>
@@ -4545,7 +4852,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J13" s="15" t="s">
         <v>16</v>
@@ -4559,7 +4866,7 @@
     </row>
     <row r="14" spans="1:16" ht="164" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="19">
         <v>5</v>
@@ -4567,7 +4874,7 @@
       <c r="C14" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>70</v>
       </c>
       <c r="E14" s="20">
@@ -4603,7 +4910,7 @@
     </row>
     <row r="15" spans="1:16" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="19">
         <v>10</v>
@@ -4611,7 +4918,7 @@
       <c r="C15" s="19">
         <v>1E-4</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>70</v>
       </c>
       <c r="E15" s="20">
@@ -4641,57 +4948,101 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15" s="23">
+      <c r="P15" s="22">
         <v>2.6620370370370374E-3</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="164" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="A16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="33">
         <v>15</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="34">
         <v>1E-4</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="34">
         <v>70</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="35">
         <v>25000</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="35">
         <v>20000</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="35">
         <v>5000</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="37">
         <v>0.95779999999999998</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="37">
         <v>0.99039999999999995</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16" s="24">
+      <c r="P16" s="38">
         <v>2.7546296296296294E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="15">
+        <v>20</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1E-4</v>
+      </c>
+      <c r="D17" s="8">
+        <v>70</v>
+      </c>
+      <c r="E17" s="40">
+        <v>25000</v>
+      </c>
+      <c r="F17" s="40">
+        <v>20000</v>
+      </c>
+      <c r="G17" s="40">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="L17" s="10">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" s="23">
+        <v>2.6620370370370374E-3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4703,6 +5054,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K15">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L10 L12:L15">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -4714,7 +5113,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L10 L12:L15">
+  <conditionalFormatting sqref="L16">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -4726,31 +5125,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L15">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="K2:K17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -4762,7 +5143,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="L2:L17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
